--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14370.09685010973</v>
+        <v>2859649.273171837</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14370.09685010973</v>
+        <v>2859649.273171837</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45584.85938501865</v>
+        <v>2808247.277813614</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45584.85938501865</v>
+        <v>2808247.277813614</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419519488.905267</v>
+        <v>56151693.8013367</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13521.19622925378</v>
+        <v>1378069.714728772</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25599.56591799974</v>
+        <v>2509778.494310346</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37677.93560674565</v>
+        <v>3641487.273891924</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51059.06164785485</v>
+        <v>4736420.818219434</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64440.18768896402</v>
+        <v>5831354.362546942</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77821.31373007319</v>
+        <v>6926287.906874447</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91202.43977118235</v>
+        <v>8021221.451201952</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104583.5658122916</v>
+        <v>9116154.995529454</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>117913.981901786</v>
+        <v>10186028.51169509</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131298.8820316849</v>
+        <v>11266744.35190108</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144683.7821615841</v>
+        <v>12347460.19210704</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158068.6822914833</v>
+        <v>13428176.032313</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>171453.5824213826</v>
+        <v>14508891.87251896</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>184838.4825512838</v>
+        <v>15589607.71272471</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198223.3826811845</v>
+        <v>16670323.5529305</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1172</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
